--- a/pelada_sabado_2026_01.xlsx
+++ b/pelada_sabado_2026_01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ritzferramentasltda-my.sharepoint.com/personal/fernando_almeida_ritzbrasil_com/Documents/Desktop/Nova pasta (2)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="471" documentId="13_ncr:1_{A8E719AF-977A-4013-BC3F-0564FE4BBC34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{63AB6E95-D8E5-444A-98B7-D8110B160FA1}"/>
+  <xr:revisionPtr revIDLastSave="581" documentId="13_ncr:1_{A8E719AF-977A-4013-BC3F-0564FE4BBC34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0E4DED05-F3F5-4047-8E74-9C61CE616D99}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20610" yWindow="-1545" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jogadores" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="110">
   <si>
     <t>Boneco</t>
   </si>
@@ -695,11 +695,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O138"/>
+  <dimension ref="A1:O160"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A138" sqref="A138"/>
+      <pane ySplit="1" topLeftCell="A141" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A160" sqref="A160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5560,6 +5560,776 @@
         <v>0</v>
       </c>
     </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A139" t="s">
+        <v>41</v>
+      </c>
+      <c r="C139">
+        <v>2</v>
+      </c>
+      <c r="D139">
+        <v>5</v>
+      </c>
+      <c r="E139">
+        <v>2</v>
+      </c>
+      <c r="F139">
+        <v>1</v>
+      </c>
+      <c r="G139">
+        <v>1</v>
+      </c>
+      <c r="H139">
+        <v>0</v>
+      </c>
+      <c r="I139">
+        <v>0</v>
+      </c>
+      <c r="J139">
+        <v>0</v>
+      </c>
+      <c r="K139">
+        <v>0</v>
+      </c>
+      <c r="L139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A140" t="s">
+        <v>27</v>
+      </c>
+      <c r="C140">
+        <v>2</v>
+      </c>
+      <c r="D140">
+        <v>5</v>
+      </c>
+      <c r="E140">
+        <v>2</v>
+      </c>
+      <c r="F140">
+        <v>3</v>
+      </c>
+      <c r="G140">
+        <v>1</v>
+      </c>
+      <c r="H140">
+        <v>0</v>
+      </c>
+      <c r="I140">
+        <v>0</v>
+      </c>
+      <c r="J140">
+        <v>0</v>
+      </c>
+      <c r="K140">
+        <v>0</v>
+      </c>
+      <c r="L140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A141" t="s">
+        <v>57</v>
+      </c>
+      <c r="C141">
+        <v>2</v>
+      </c>
+      <c r="D141">
+        <v>5</v>
+      </c>
+      <c r="E141">
+        <v>2</v>
+      </c>
+      <c r="F141">
+        <v>3</v>
+      </c>
+      <c r="G141">
+        <v>1</v>
+      </c>
+      <c r="H141">
+        <v>0</v>
+      </c>
+      <c r="I141">
+        <v>0</v>
+      </c>
+      <c r="J141">
+        <v>0</v>
+      </c>
+      <c r="K141">
+        <v>0</v>
+      </c>
+      <c r="L141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A142" t="s">
+        <v>24</v>
+      </c>
+      <c r="C142">
+        <v>2</v>
+      </c>
+      <c r="D142">
+        <v>5</v>
+      </c>
+      <c r="E142">
+        <v>2</v>
+      </c>
+      <c r="F142">
+        <v>0</v>
+      </c>
+      <c r="G142">
+        <v>1</v>
+      </c>
+      <c r="H142">
+        <v>0</v>
+      </c>
+      <c r="I142">
+        <v>0</v>
+      </c>
+      <c r="J142">
+        <v>0</v>
+      </c>
+      <c r="K142">
+        <v>0</v>
+      </c>
+      <c r="L142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A143" t="s">
+        <v>6</v>
+      </c>
+      <c r="C143">
+        <v>2</v>
+      </c>
+      <c r="D143">
+        <v>5</v>
+      </c>
+      <c r="E143">
+        <v>2</v>
+      </c>
+      <c r="F143">
+        <v>2</v>
+      </c>
+      <c r="G143">
+        <v>1</v>
+      </c>
+      <c r="H143">
+        <v>0</v>
+      </c>
+      <c r="I143">
+        <v>0</v>
+      </c>
+      <c r="J143">
+        <v>0</v>
+      </c>
+      <c r="K143">
+        <v>0</v>
+      </c>
+      <c r="L143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A144" t="s">
+        <v>50</v>
+      </c>
+      <c r="C144">
+        <v>2</v>
+      </c>
+      <c r="D144">
+        <v>3</v>
+      </c>
+      <c r="E144">
+        <v>3</v>
+      </c>
+      <c r="F144">
+        <v>1</v>
+      </c>
+      <c r="G144">
+        <v>1</v>
+      </c>
+      <c r="H144">
+        <v>0</v>
+      </c>
+      <c r="I144">
+        <v>0</v>
+      </c>
+      <c r="J144">
+        <v>0</v>
+      </c>
+      <c r="K144">
+        <v>0</v>
+      </c>
+      <c r="L144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A145" t="s">
+        <v>7</v>
+      </c>
+      <c r="C145">
+        <v>2</v>
+      </c>
+      <c r="D145">
+        <v>3</v>
+      </c>
+      <c r="E145">
+        <v>3</v>
+      </c>
+      <c r="F145">
+        <v>0</v>
+      </c>
+      <c r="G145">
+        <v>1</v>
+      </c>
+      <c r="H145">
+        <v>0</v>
+      </c>
+      <c r="I145">
+        <v>0</v>
+      </c>
+      <c r="J145">
+        <v>0</v>
+      </c>
+      <c r="K145">
+        <v>0</v>
+      </c>
+      <c r="L145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A146" t="s">
+        <v>2</v>
+      </c>
+      <c r="C146">
+        <v>2</v>
+      </c>
+      <c r="D146">
+        <v>3</v>
+      </c>
+      <c r="E146">
+        <v>3</v>
+      </c>
+      <c r="F146">
+        <v>1</v>
+      </c>
+      <c r="G146">
+        <v>1</v>
+      </c>
+      <c r="H146">
+        <v>0</v>
+      </c>
+      <c r="I146">
+        <v>0</v>
+      </c>
+      <c r="J146">
+        <v>0</v>
+      </c>
+      <c r="K146">
+        <v>0</v>
+      </c>
+      <c r="L146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A147" t="s">
+        <v>1</v>
+      </c>
+      <c r="C147">
+        <v>2</v>
+      </c>
+      <c r="D147">
+        <v>3</v>
+      </c>
+      <c r="E147">
+        <v>3</v>
+      </c>
+      <c r="F147">
+        <v>0</v>
+      </c>
+      <c r="G147">
+        <v>1</v>
+      </c>
+      <c r="H147">
+        <v>0</v>
+      </c>
+      <c r="I147">
+        <v>0</v>
+      </c>
+      <c r="J147">
+        <v>0</v>
+      </c>
+      <c r="K147">
+        <v>0</v>
+      </c>
+      <c r="L147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A148" t="s">
+        <v>36</v>
+      </c>
+      <c r="C148">
+        <v>2</v>
+      </c>
+      <c r="D148">
+        <v>3</v>
+      </c>
+      <c r="E148">
+        <v>3</v>
+      </c>
+      <c r="F148">
+        <v>2</v>
+      </c>
+      <c r="G148">
+        <v>1</v>
+      </c>
+      <c r="H148">
+        <v>0</v>
+      </c>
+      <c r="I148">
+        <v>0</v>
+      </c>
+      <c r="J148">
+        <v>0</v>
+      </c>
+      <c r="K148">
+        <v>0</v>
+      </c>
+      <c r="L148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A149" t="s">
+        <v>28</v>
+      </c>
+      <c r="C149">
+        <v>2</v>
+      </c>
+      <c r="D149">
+        <v>2</v>
+      </c>
+      <c r="E149">
+        <v>3</v>
+      </c>
+      <c r="F149">
+        <v>1</v>
+      </c>
+      <c r="G149">
+        <v>1</v>
+      </c>
+      <c r="H149">
+        <v>0</v>
+      </c>
+      <c r="I149">
+        <v>1</v>
+      </c>
+      <c r="J149">
+        <v>0</v>
+      </c>
+      <c r="K149">
+        <v>0</v>
+      </c>
+      <c r="L149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A150" t="s">
+        <v>3</v>
+      </c>
+      <c r="C150">
+        <v>2</v>
+      </c>
+      <c r="D150">
+        <v>2</v>
+      </c>
+      <c r="E150">
+        <v>3</v>
+      </c>
+      <c r="F150">
+        <v>1</v>
+      </c>
+      <c r="G150">
+        <v>1</v>
+      </c>
+      <c r="H150">
+        <v>0</v>
+      </c>
+      <c r="I150">
+        <v>1</v>
+      </c>
+      <c r="J150">
+        <v>0</v>
+      </c>
+      <c r="K150">
+        <v>0</v>
+      </c>
+      <c r="L150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A151" t="s">
+        <v>34</v>
+      </c>
+      <c r="C151">
+        <v>2</v>
+      </c>
+      <c r="D151">
+        <v>2</v>
+      </c>
+      <c r="E151">
+        <v>3</v>
+      </c>
+      <c r="F151">
+        <v>3</v>
+      </c>
+      <c r="G151">
+        <v>1</v>
+      </c>
+      <c r="H151">
+        <v>0</v>
+      </c>
+      <c r="I151">
+        <v>1</v>
+      </c>
+      <c r="J151">
+        <v>0</v>
+      </c>
+      <c r="K151">
+        <v>0</v>
+      </c>
+      <c r="L151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A152" t="s">
+        <v>29</v>
+      </c>
+      <c r="C152">
+        <v>2</v>
+      </c>
+      <c r="D152">
+        <v>2</v>
+      </c>
+      <c r="E152">
+        <v>3</v>
+      </c>
+      <c r="F152">
+        <v>1</v>
+      </c>
+      <c r="G152">
+        <v>1</v>
+      </c>
+      <c r="H152">
+        <v>0</v>
+      </c>
+      <c r="I152">
+        <v>1</v>
+      </c>
+      <c r="J152">
+        <v>0</v>
+      </c>
+      <c r="K152">
+        <v>0</v>
+      </c>
+      <c r="L152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A153" t="s">
+        <v>4</v>
+      </c>
+      <c r="C153">
+        <v>2</v>
+      </c>
+      <c r="D153">
+        <v>2</v>
+      </c>
+      <c r="E153">
+        <v>3</v>
+      </c>
+      <c r="F153">
+        <v>1</v>
+      </c>
+      <c r="G153">
+        <v>1</v>
+      </c>
+      <c r="H153">
+        <v>0</v>
+      </c>
+      <c r="I153">
+        <v>1</v>
+      </c>
+      <c r="J153">
+        <v>0</v>
+      </c>
+      <c r="K153">
+        <v>0</v>
+      </c>
+      <c r="L153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A154" t="s">
+        <v>21</v>
+      </c>
+      <c r="C154">
+        <v>3</v>
+      </c>
+      <c r="D154">
+        <v>4</v>
+      </c>
+      <c r="E154">
+        <v>1</v>
+      </c>
+      <c r="F154">
+        <v>1</v>
+      </c>
+      <c r="G154">
+        <v>1</v>
+      </c>
+      <c r="H154">
+        <v>1</v>
+      </c>
+      <c r="I154">
+        <v>0</v>
+      </c>
+      <c r="J154">
+        <v>0</v>
+      </c>
+      <c r="K154">
+        <v>0</v>
+      </c>
+      <c r="L154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A155" t="s">
+        <v>25</v>
+      </c>
+      <c r="C155">
+        <v>3</v>
+      </c>
+      <c r="D155">
+        <v>4</v>
+      </c>
+      <c r="E155">
+        <v>1</v>
+      </c>
+      <c r="F155">
+        <v>0</v>
+      </c>
+      <c r="G155">
+        <v>1</v>
+      </c>
+      <c r="H155">
+        <v>1</v>
+      </c>
+      <c r="I155">
+        <v>0</v>
+      </c>
+      <c r="J155">
+        <v>0</v>
+      </c>
+      <c r="K155">
+        <v>0</v>
+      </c>
+      <c r="L155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A156" t="s">
+        <v>23</v>
+      </c>
+      <c r="C156">
+        <v>3</v>
+      </c>
+      <c r="D156">
+        <v>4</v>
+      </c>
+      <c r="E156">
+        <v>1</v>
+      </c>
+      <c r="F156">
+        <v>2</v>
+      </c>
+      <c r="G156">
+        <v>1</v>
+      </c>
+      <c r="H156">
+        <v>1</v>
+      </c>
+      <c r="I156">
+        <v>0</v>
+      </c>
+      <c r="J156">
+        <v>0</v>
+      </c>
+      <c r="K156">
+        <v>0</v>
+      </c>
+      <c r="L156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A157" t="s">
+        <v>84</v>
+      </c>
+      <c r="C157">
+        <v>3</v>
+      </c>
+      <c r="D157">
+        <v>4</v>
+      </c>
+      <c r="E157">
+        <v>1</v>
+      </c>
+      <c r="F157">
+        <v>3</v>
+      </c>
+      <c r="G157">
+        <v>1</v>
+      </c>
+      <c r="H157">
+        <v>1</v>
+      </c>
+      <c r="I157">
+        <v>0</v>
+      </c>
+      <c r="J157">
+        <v>0</v>
+      </c>
+      <c r="K157">
+        <v>0</v>
+      </c>
+      <c r="L157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A158" t="s">
+        <v>30</v>
+      </c>
+      <c r="C158">
+        <v>3</v>
+      </c>
+      <c r="D158">
+        <v>4</v>
+      </c>
+      <c r="E158">
+        <v>1</v>
+      </c>
+      <c r="F158">
+        <v>1</v>
+      </c>
+      <c r="G158">
+        <v>1</v>
+      </c>
+      <c r="H158">
+        <v>1</v>
+      </c>
+      <c r="I158">
+        <v>0</v>
+      </c>
+      <c r="J158">
+        <v>0</v>
+      </c>
+      <c r="K158">
+        <v>0</v>
+      </c>
+      <c r="L158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A159" t="s">
+        <v>55</v>
+      </c>
+      <c r="C159">
+        <v>6</v>
+      </c>
+      <c r="D159">
+        <v>5</v>
+      </c>
+      <c r="E159">
+        <v>0</v>
+      </c>
+      <c r="F159">
+        <v>4</v>
+      </c>
+      <c r="G159">
+        <v>1</v>
+      </c>
+      <c r="H159">
+        <v>1</v>
+      </c>
+      <c r="I159">
+        <v>0</v>
+      </c>
+      <c r="J159">
+        <v>0</v>
+      </c>
+      <c r="K159">
+        <v>11</v>
+      </c>
+      <c r="L159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A160" t="s">
+        <v>97</v>
+      </c>
+      <c r="C160">
+        <v>0</v>
+      </c>
+      <c r="D160">
+        <v>5</v>
+      </c>
+      <c r="E160">
+        <v>6</v>
+      </c>
+      <c r="F160">
+        <v>0</v>
+      </c>
+      <c r="G160">
+        <v>1</v>
+      </c>
+      <c r="H160">
+        <v>0</v>
+      </c>
+      <c r="I160">
+        <v>1</v>
+      </c>
+      <c r="J160">
+        <v>0</v>
+      </c>
+      <c r="K160">
+        <v>20</v>
+      </c>
+      <c r="L160">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:L455" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/pelada_sabado_2026_01.xlsx
+++ b/pelada_sabado_2026_01.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ritzferramentasltda-my.sharepoint.com/personal/fernando_almeida_ritzbrasil_com/Documents/Desktop/Nova pasta (2)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="581" documentId="13_ncr:1_{A8E719AF-977A-4013-BC3F-0564FE4BBC34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0E4DED05-F3F5-4047-8E74-9C61CE616D99}"/>
+  <xr:revisionPtr revIDLastSave="706" documentId="13_ncr:1_{A8E719AF-977A-4013-BC3F-0564FE4BBC34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5E44F27D-FCD3-4040-8C03-46EB5E908265}"/>
   <bookViews>
-    <workbookView xWindow="-20610" yWindow="-1545" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jogadores" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Jogadores!$A$1:$L$455</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Jogadores!$A$1:$L$456</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="110">
   <si>
     <t>Boneco</t>
   </si>
@@ -695,11 +695,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O160"/>
+  <dimension ref="A1:O183"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A141" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A160" sqref="A160"/>
+      <pane ySplit="1" topLeftCell="A167" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K184" sqref="K184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6330,8 +6330,813 @@
         <v>0</v>
       </c>
     </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A161" t="s">
+        <v>4</v>
+      </c>
+      <c r="C161">
+        <v>4</v>
+      </c>
+      <c r="D161">
+        <v>2</v>
+      </c>
+      <c r="E161">
+        <v>2</v>
+      </c>
+      <c r="F161">
+        <v>3</v>
+      </c>
+      <c r="G161">
+        <v>1</v>
+      </c>
+      <c r="H161">
+        <v>1</v>
+      </c>
+      <c r="I161">
+        <v>0</v>
+      </c>
+      <c r="J161">
+        <v>0</v>
+      </c>
+      <c r="K161">
+        <v>0</v>
+      </c>
+      <c r="L161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A162" t="s">
+        <v>6</v>
+      </c>
+      <c r="C162">
+        <v>4</v>
+      </c>
+      <c r="D162">
+        <v>2</v>
+      </c>
+      <c r="E162">
+        <v>2</v>
+      </c>
+      <c r="F162">
+        <v>1</v>
+      </c>
+      <c r="G162">
+        <v>1</v>
+      </c>
+      <c r="H162">
+        <v>1</v>
+      </c>
+      <c r="I162">
+        <v>0</v>
+      </c>
+      <c r="J162">
+        <v>0</v>
+      </c>
+      <c r="K162">
+        <v>0</v>
+      </c>
+      <c r="L162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A163" t="s">
+        <v>84</v>
+      </c>
+      <c r="C163">
+        <v>4</v>
+      </c>
+      <c r="D163">
+        <v>2</v>
+      </c>
+      <c r="E163">
+        <v>2</v>
+      </c>
+      <c r="F163">
+        <v>1</v>
+      </c>
+      <c r="G163">
+        <v>1</v>
+      </c>
+      <c r="H163">
+        <v>1</v>
+      </c>
+      <c r="I163">
+        <v>0</v>
+      </c>
+      <c r="J163">
+        <v>0</v>
+      </c>
+      <c r="K163">
+        <v>0</v>
+      </c>
+      <c r="L163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A164" t="s">
+        <v>57</v>
+      </c>
+      <c r="C164">
+        <v>4</v>
+      </c>
+      <c r="D164">
+        <v>2</v>
+      </c>
+      <c r="E164">
+        <v>2</v>
+      </c>
+      <c r="F164">
+        <v>4</v>
+      </c>
+      <c r="G164">
+        <v>1</v>
+      </c>
+      <c r="H164">
+        <v>1</v>
+      </c>
+      <c r="I164">
+        <v>0</v>
+      </c>
+      <c r="J164">
+        <v>0</v>
+      </c>
+      <c r="K164">
+        <v>0</v>
+      </c>
+      <c r="L164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A165" t="s">
+        <v>3</v>
+      </c>
+      <c r="C165">
+        <v>4</v>
+      </c>
+      <c r="D165">
+        <v>2</v>
+      </c>
+      <c r="E165">
+        <v>2</v>
+      </c>
+      <c r="F165">
+        <v>1</v>
+      </c>
+      <c r="G165">
+        <v>1</v>
+      </c>
+      <c r="H165">
+        <v>1</v>
+      </c>
+      <c r="I165">
+        <v>0</v>
+      </c>
+      <c r="J165">
+        <v>0</v>
+      </c>
+      <c r="K165">
+        <v>0</v>
+      </c>
+      <c r="L165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A166" t="s">
+        <v>87</v>
+      </c>
+      <c r="C166">
+        <v>4</v>
+      </c>
+      <c r="D166">
+        <v>1</v>
+      </c>
+      <c r="E166">
+        <v>4</v>
+      </c>
+      <c r="F166">
+        <v>1</v>
+      </c>
+      <c r="G166">
+        <v>1</v>
+      </c>
+      <c r="H166">
+        <v>0</v>
+      </c>
+      <c r="I166">
+        <v>0</v>
+      </c>
+      <c r="J166">
+        <v>0</v>
+      </c>
+      <c r="K166">
+        <v>0</v>
+      </c>
+      <c r="L166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A167" t="s">
+        <v>25</v>
+      </c>
+      <c r="C167">
+        <v>4</v>
+      </c>
+      <c r="D167">
+        <v>1</v>
+      </c>
+      <c r="E167">
+        <v>4</v>
+      </c>
+      <c r="F167">
+        <v>1</v>
+      </c>
+      <c r="G167">
+        <v>1</v>
+      </c>
+      <c r="H167">
+        <v>0</v>
+      </c>
+      <c r="I167">
+        <v>0</v>
+      </c>
+      <c r="J167">
+        <v>0</v>
+      </c>
+      <c r="K167">
+        <v>0</v>
+      </c>
+      <c r="L167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A168" t="s">
+        <v>1</v>
+      </c>
+      <c r="C168">
+        <v>4</v>
+      </c>
+      <c r="D168">
+        <v>1</v>
+      </c>
+      <c r="E168">
+        <v>4</v>
+      </c>
+      <c r="F168">
+        <v>1</v>
+      </c>
+      <c r="G168">
+        <v>1</v>
+      </c>
+      <c r="H168">
+        <v>0</v>
+      </c>
+      <c r="I168">
+        <v>0</v>
+      </c>
+      <c r="J168">
+        <v>0</v>
+      </c>
+      <c r="K168">
+        <v>0</v>
+      </c>
+      <c r="L168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A169" t="s">
+        <v>79</v>
+      </c>
+      <c r="C169">
+        <v>4</v>
+      </c>
+      <c r="D169">
+        <v>1</v>
+      </c>
+      <c r="E169">
+        <v>4</v>
+      </c>
+      <c r="F169">
+        <v>4</v>
+      </c>
+      <c r="G169">
+        <v>1</v>
+      </c>
+      <c r="H169">
+        <v>0</v>
+      </c>
+      <c r="I169">
+        <v>0</v>
+      </c>
+      <c r="J169">
+        <v>0</v>
+      </c>
+      <c r="K169">
+        <v>0</v>
+      </c>
+      <c r="L169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A170" t="s">
+        <v>34</v>
+      </c>
+      <c r="C170">
+        <v>4</v>
+      </c>
+      <c r="D170">
+        <v>1</v>
+      </c>
+      <c r="E170">
+        <v>4</v>
+      </c>
+      <c r="F170">
+        <v>0</v>
+      </c>
+      <c r="G170">
+        <v>1</v>
+      </c>
+      <c r="H170">
+        <v>0</v>
+      </c>
+      <c r="I170">
+        <v>0</v>
+      </c>
+      <c r="J170">
+        <v>0</v>
+      </c>
+      <c r="K170">
+        <v>0</v>
+      </c>
+      <c r="L170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A171" t="s">
+        <v>23</v>
+      </c>
+      <c r="C171">
+        <v>1</v>
+      </c>
+      <c r="D171">
+        <v>1</v>
+      </c>
+      <c r="E171">
+        <v>4</v>
+      </c>
+      <c r="F171">
+        <v>1</v>
+      </c>
+      <c r="G171">
+        <v>1</v>
+      </c>
+      <c r="H171">
+        <v>0</v>
+      </c>
+      <c r="I171">
+        <v>1</v>
+      </c>
+      <c r="J171">
+        <v>0</v>
+      </c>
+      <c r="K171">
+        <v>0</v>
+      </c>
+      <c r="L171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A172" t="s">
+        <v>30</v>
+      </c>
+      <c r="C172">
+        <v>1</v>
+      </c>
+      <c r="D172">
+        <v>1</v>
+      </c>
+      <c r="E172">
+        <v>4</v>
+      </c>
+      <c r="F172">
+        <v>1</v>
+      </c>
+      <c r="G172">
+        <v>1</v>
+      </c>
+      <c r="H172">
+        <v>0</v>
+      </c>
+      <c r="I172">
+        <v>1</v>
+      </c>
+      <c r="J172">
+        <v>0</v>
+      </c>
+      <c r="K172">
+        <v>0</v>
+      </c>
+      <c r="L172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A173" t="s">
+        <v>28</v>
+      </c>
+      <c r="C173">
+        <v>1</v>
+      </c>
+      <c r="D173">
+        <v>1</v>
+      </c>
+      <c r="E173">
+        <v>4</v>
+      </c>
+      <c r="F173">
+        <v>0</v>
+      </c>
+      <c r="G173">
+        <v>1</v>
+      </c>
+      <c r="H173">
+        <v>0</v>
+      </c>
+      <c r="I173">
+        <v>1</v>
+      </c>
+      <c r="J173">
+        <v>0</v>
+      </c>
+      <c r="K173">
+        <v>0</v>
+      </c>
+      <c r="L173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A174" t="s">
+        <v>2</v>
+      </c>
+      <c r="C174">
+        <v>1</v>
+      </c>
+      <c r="D174">
+        <v>1</v>
+      </c>
+      <c r="E174">
+        <v>4</v>
+      </c>
+      <c r="F174">
+        <v>1</v>
+      </c>
+      <c r="G174">
+        <v>1</v>
+      </c>
+      <c r="H174">
+        <v>0</v>
+      </c>
+      <c r="I174">
+        <v>1</v>
+      </c>
+      <c r="J174">
+        <v>0</v>
+      </c>
+      <c r="K174">
+        <v>0</v>
+      </c>
+      <c r="L174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A175" t="s">
+        <v>36</v>
+      </c>
+      <c r="C175">
+        <v>1</v>
+      </c>
+      <c r="D175">
+        <v>1</v>
+      </c>
+      <c r="E175">
+        <v>4</v>
+      </c>
+      <c r="F175">
+        <v>3</v>
+      </c>
+      <c r="G175">
+        <v>1</v>
+      </c>
+      <c r="H175">
+        <v>0</v>
+      </c>
+      <c r="I175">
+        <v>1</v>
+      </c>
+      <c r="J175">
+        <v>0</v>
+      </c>
+      <c r="K175">
+        <v>0</v>
+      </c>
+      <c r="L175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A176" t="s">
+        <v>24</v>
+      </c>
+      <c r="C176">
+        <v>3</v>
+      </c>
+      <c r="D176">
+        <v>2</v>
+      </c>
+      <c r="E176">
+        <v>2</v>
+      </c>
+      <c r="F176">
+        <v>0</v>
+      </c>
+      <c r="G176">
+        <v>1</v>
+      </c>
+      <c r="H176">
+        <v>0</v>
+      </c>
+      <c r="I176">
+        <v>0</v>
+      </c>
+      <c r="J176">
+        <v>0</v>
+      </c>
+      <c r="K176">
+        <v>0</v>
+      </c>
+      <c r="L176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A177" t="s">
+        <v>107</v>
+      </c>
+      <c r="C177">
+        <v>3</v>
+      </c>
+      <c r="D177">
+        <v>2</v>
+      </c>
+      <c r="E177">
+        <v>2</v>
+      </c>
+      <c r="F177">
+        <v>0</v>
+      </c>
+      <c r="G177">
+        <v>1</v>
+      </c>
+      <c r="H177">
+        <v>0</v>
+      </c>
+      <c r="I177">
+        <v>0</v>
+      </c>
+      <c r="J177">
+        <v>0</v>
+      </c>
+      <c r="K177">
+        <v>0</v>
+      </c>
+      <c r="L177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A178" t="s">
+        <v>5</v>
+      </c>
+      <c r="C178">
+        <v>3</v>
+      </c>
+      <c r="D178">
+        <v>2</v>
+      </c>
+      <c r="E178">
+        <v>2</v>
+      </c>
+      <c r="F178">
+        <v>1</v>
+      </c>
+      <c r="G178">
+        <v>1</v>
+      </c>
+      <c r="H178">
+        <v>0</v>
+      </c>
+      <c r="I178">
+        <v>0</v>
+      </c>
+      <c r="J178">
+        <v>0</v>
+      </c>
+      <c r="K178">
+        <v>0</v>
+      </c>
+      <c r="L178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A179" t="s">
+        <v>27</v>
+      </c>
+      <c r="C179">
+        <v>3</v>
+      </c>
+      <c r="D179">
+        <v>2</v>
+      </c>
+      <c r="E179">
+        <v>2</v>
+      </c>
+      <c r="F179">
+        <v>2</v>
+      </c>
+      <c r="G179">
+        <v>1</v>
+      </c>
+      <c r="H179">
+        <v>0</v>
+      </c>
+      <c r="I179">
+        <v>0</v>
+      </c>
+      <c r="J179">
+        <v>0</v>
+      </c>
+      <c r="K179">
+        <v>0</v>
+      </c>
+      <c r="L179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A180" t="s">
+        <v>59</v>
+      </c>
+      <c r="C180">
+        <v>3</v>
+      </c>
+      <c r="D180">
+        <v>2</v>
+      </c>
+      <c r="E180">
+        <v>2</v>
+      </c>
+      <c r="F180">
+        <v>3</v>
+      </c>
+      <c r="G180">
+        <v>1</v>
+      </c>
+      <c r="H180">
+        <v>0</v>
+      </c>
+      <c r="I180">
+        <v>0</v>
+      </c>
+      <c r="J180">
+        <v>0</v>
+      </c>
+      <c r="K180">
+        <v>0</v>
+      </c>
+      <c r="L180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A181" t="s">
+        <v>55</v>
+      </c>
+      <c r="C181">
+        <v>3</v>
+      </c>
+      <c r="D181">
+        <v>2</v>
+      </c>
+      <c r="E181">
+        <v>5</v>
+      </c>
+      <c r="F181">
+        <v>2</v>
+      </c>
+      <c r="G181">
+        <v>1</v>
+      </c>
+      <c r="H181">
+        <v>0</v>
+      </c>
+      <c r="I181">
+        <v>1</v>
+      </c>
+      <c r="J181">
+        <v>0</v>
+      </c>
+      <c r="K181">
+        <v>10</v>
+      </c>
+      <c r="L181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A182" t="s">
+        <v>47</v>
+      </c>
+      <c r="C182">
+        <v>5</v>
+      </c>
+      <c r="D182">
+        <v>1</v>
+      </c>
+      <c r="E182">
+        <v>4</v>
+      </c>
+      <c r="F182">
+        <v>0</v>
+      </c>
+      <c r="G182">
+        <v>1</v>
+      </c>
+      <c r="H182">
+        <v>1</v>
+      </c>
+      <c r="I182">
+        <v>0</v>
+      </c>
+      <c r="J182">
+        <v>0</v>
+      </c>
+      <c r="K182">
+        <v>8</v>
+      </c>
+      <c r="L182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A183" t="s">
+        <v>109</v>
+      </c>
+      <c r="C183">
+        <v>3</v>
+      </c>
+      <c r="D183">
+        <v>3</v>
+      </c>
+      <c r="E183">
+        <v>3</v>
+      </c>
+      <c r="F183">
+        <v>0</v>
+      </c>
+      <c r="G183">
+        <v>1</v>
+      </c>
+      <c r="H183">
+        <v>0</v>
+      </c>
+      <c r="I183">
+        <v>0</v>
+      </c>
+      <c r="J183">
+        <v>0</v>
+      </c>
+      <c r="K183">
+        <v>10</v>
+      </c>
+      <c r="L183">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:L455" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:L456" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/pelada_sabado_2026_01.xlsx
+++ b/pelada_sabado_2026_01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ritzferramentasltda-my.sharepoint.com/personal/fernando_almeida_ritzbrasil_com/Documents/Desktop/Nova pasta (2)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="706" documentId="13_ncr:1_{A8E719AF-977A-4013-BC3F-0564FE4BBC34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5E44F27D-FCD3-4040-8C03-46EB5E908265}"/>
+  <xr:revisionPtr revIDLastSave="816" documentId="13_ncr:1_{A8E719AF-977A-4013-BC3F-0564FE4BBC34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4D8C6AEA-825E-4DF8-BDE4-E866EFDCA37E}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="110">
   <si>
     <t>Boneco</t>
   </si>
@@ -695,11 +695,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O183"/>
+  <dimension ref="A1:O205"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A167" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K184" sqref="K184"/>
+      <pane ySplit="1" topLeftCell="A189" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A206" sqref="A206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7135,6 +7135,776 @@
         <v>0</v>
       </c>
     </row>
+    <row r="184" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A184" t="s">
+        <v>43</v>
+      </c>
+      <c r="C184">
+        <v>5</v>
+      </c>
+      <c r="D184">
+        <v>1</v>
+      </c>
+      <c r="E184">
+        <v>4</v>
+      </c>
+      <c r="F184">
+        <v>3</v>
+      </c>
+      <c r="G184">
+        <v>1</v>
+      </c>
+      <c r="H184">
+        <v>0</v>
+      </c>
+      <c r="I184">
+        <v>0</v>
+      </c>
+      <c r="J184">
+        <v>0</v>
+      </c>
+      <c r="K184">
+        <v>0</v>
+      </c>
+      <c r="L184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A185" t="s">
+        <v>33</v>
+      </c>
+      <c r="C185">
+        <v>5</v>
+      </c>
+      <c r="D185">
+        <v>1</v>
+      </c>
+      <c r="E185">
+        <v>4</v>
+      </c>
+      <c r="F185">
+        <v>4</v>
+      </c>
+      <c r="G185">
+        <v>1</v>
+      </c>
+      <c r="H185">
+        <v>0</v>
+      </c>
+      <c r="I185">
+        <v>0</v>
+      </c>
+      <c r="J185">
+        <v>0</v>
+      </c>
+      <c r="K185">
+        <v>0</v>
+      </c>
+      <c r="L185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A186" t="s">
+        <v>1</v>
+      </c>
+      <c r="C186">
+        <v>5</v>
+      </c>
+      <c r="D186">
+        <v>1</v>
+      </c>
+      <c r="E186">
+        <v>4</v>
+      </c>
+      <c r="F186">
+        <v>3</v>
+      </c>
+      <c r="G186">
+        <v>1</v>
+      </c>
+      <c r="H186">
+        <v>0</v>
+      </c>
+      <c r="I186">
+        <v>0</v>
+      </c>
+      <c r="J186">
+        <v>0</v>
+      </c>
+      <c r="K186">
+        <v>0</v>
+      </c>
+      <c r="L186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A187" t="s">
+        <v>5</v>
+      </c>
+      <c r="C187">
+        <v>5</v>
+      </c>
+      <c r="D187">
+        <v>1</v>
+      </c>
+      <c r="E187">
+        <v>4</v>
+      </c>
+      <c r="F187">
+        <v>0</v>
+      </c>
+      <c r="G187">
+        <v>1</v>
+      </c>
+      <c r="H187">
+        <v>0</v>
+      </c>
+      <c r="I187">
+        <v>0</v>
+      </c>
+      <c r="J187">
+        <v>0</v>
+      </c>
+      <c r="K187">
+        <v>0</v>
+      </c>
+      <c r="L187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A188" t="s">
+        <v>3</v>
+      </c>
+      <c r="C188">
+        <v>5</v>
+      </c>
+      <c r="D188">
+        <v>1</v>
+      </c>
+      <c r="E188">
+        <v>4</v>
+      </c>
+      <c r="F188">
+        <v>0</v>
+      </c>
+      <c r="G188">
+        <v>1</v>
+      </c>
+      <c r="H188">
+        <v>0</v>
+      </c>
+      <c r="I188">
+        <v>0</v>
+      </c>
+      <c r="J188">
+        <v>0</v>
+      </c>
+      <c r="K188">
+        <v>0</v>
+      </c>
+      <c r="L188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A189" t="s">
+        <v>57</v>
+      </c>
+      <c r="C189">
+        <v>5</v>
+      </c>
+      <c r="D189">
+        <v>1</v>
+      </c>
+      <c r="E189">
+        <v>3</v>
+      </c>
+      <c r="F189">
+        <v>2</v>
+      </c>
+      <c r="G189">
+        <v>1</v>
+      </c>
+      <c r="H189">
+        <v>1</v>
+      </c>
+      <c r="I189">
+        <v>0</v>
+      </c>
+      <c r="J189">
+        <v>0</v>
+      </c>
+      <c r="K189">
+        <v>0</v>
+      </c>
+      <c r="L189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A190" t="s">
+        <v>24</v>
+      </c>
+      <c r="C190">
+        <v>5</v>
+      </c>
+      <c r="D190">
+        <v>1</v>
+      </c>
+      <c r="E190">
+        <v>3</v>
+      </c>
+      <c r="F190">
+        <v>1</v>
+      </c>
+      <c r="G190">
+        <v>1</v>
+      </c>
+      <c r="H190">
+        <v>1</v>
+      </c>
+      <c r="I190">
+        <v>0</v>
+      </c>
+      <c r="J190">
+        <v>0</v>
+      </c>
+      <c r="K190">
+        <v>0</v>
+      </c>
+      <c r="L190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A191" t="s">
+        <v>34</v>
+      </c>
+      <c r="C191">
+        <v>5</v>
+      </c>
+      <c r="D191">
+        <v>1</v>
+      </c>
+      <c r="E191">
+        <v>3</v>
+      </c>
+      <c r="F191">
+        <v>1</v>
+      </c>
+      <c r="G191">
+        <v>1</v>
+      </c>
+      <c r="H191">
+        <v>1</v>
+      </c>
+      <c r="I191">
+        <v>0</v>
+      </c>
+      <c r="J191">
+        <v>0</v>
+      </c>
+      <c r="K191">
+        <v>0</v>
+      </c>
+      <c r="L191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A192" t="s">
+        <v>4</v>
+      </c>
+      <c r="C192">
+        <v>5</v>
+      </c>
+      <c r="D192">
+        <v>1</v>
+      </c>
+      <c r="E192">
+        <v>3</v>
+      </c>
+      <c r="F192">
+        <v>6</v>
+      </c>
+      <c r="G192">
+        <v>1</v>
+      </c>
+      <c r="H192">
+        <v>1</v>
+      </c>
+      <c r="I192">
+        <v>0</v>
+      </c>
+      <c r="J192">
+        <v>0</v>
+      </c>
+      <c r="K192">
+        <v>0</v>
+      </c>
+      <c r="L192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A193" t="s">
+        <v>21</v>
+      </c>
+      <c r="C193">
+        <v>5</v>
+      </c>
+      <c r="D193">
+        <v>1</v>
+      </c>
+      <c r="E193">
+        <v>3</v>
+      </c>
+      <c r="F193">
+        <v>1</v>
+      </c>
+      <c r="G193">
+        <v>1</v>
+      </c>
+      <c r="H193">
+        <v>1</v>
+      </c>
+      <c r="I193">
+        <v>0</v>
+      </c>
+      <c r="J193">
+        <v>0</v>
+      </c>
+      <c r="K193">
+        <v>0</v>
+      </c>
+      <c r="L193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A194" t="s">
+        <v>29</v>
+      </c>
+      <c r="C194">
+        <v>0</v>
+      </c>
+      <c r="D194">
+        <v>1</v>
+      </c>
+      <c r="E194">
+        <v>4</v>
+      </c>
+      <c r="F194">
+        <v>0</v>
+      </c>
+      <c r="G194">
+        <v>1</v>
+      </c>
+      <c r="H194">
+        <v>0</v>
+      </c>
+      <c r="I194">
+        <v>1</v>
+      </c>
+      <c r="J194">
+        <v>0</v>
+      </c>
+      <c r="K194">
+        <v>0</v>
+      </c>
+      <c r="L194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A195" t="s">
+        <v>41</v>
+      </c>
+      <c r="C195">
+        <v>0</v>
+      </c>
+      <c r="D195">
+        <v>1</v>
+      </c>
+      <c r="E195">
+        <v>4</v>
+      </c>
+      <c r="F195">
+        <v>1</v>
+      </c>
+      <c r="G195">
+        <v>1</v>
+      </c>
+      <c r="H195">
+        <v>0</v>
+      </c>
+      <c r="I195">
+        <v>1</v>
+      </c>
+      <c r="J195">
+        <v>0</v>
+      </c>
+      <c r="K195">
+        <v>0</v>
+      </c>
+      <c r="L195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A196" t="s">
+        <v>30</v>
+      </c>
+      <c r="C196">
+        <v>0</v>
+      </c>
+      <c r="D196">
+        <v>1</v>
+      </c>
+      <c r="E196">
+        <v>4</v>
+      </c>
+      <c r="F196">
+        <v>0</v>
+      </c>
+      <c r="G196">
+        <v>1</v>
+      </c>
+      <c r="H196">
+        <v>0</v>
+      </c>
+      <c r="I196">
+        <v>1</v>
+      </c>
+      <c r="J196">
+        <v>0</v>
+      </c>
+      <c r="K196">
+        <v>0</v>
+      </c>
+      <c r="L196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A197" t="s">
+        <v>7</v>
+      </c>
+      <c r="C197">
+        <v>0</v>
+      </c>
+      <c r="D197">
+        <v>1</v>
+      </c>
+      <c r="E197">
+        <v>4</v>
+      </c>
+      <c r="F197">
+        <v>0</v>
+      </c>
+      <c r="G197">
+        <v>1</v>
+      </c>
+      <c r="H197">
+        <v>0</v>
+      </c>
+      <c r="I197">
+        <v>1</v>
+      </c>
+      <c r="J197">
+        <v>0</v>
+      </c>
+      <c r="K197">
+        <v>0</v>
+      </c>
+      <c r="L197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A198" t="s">
+        <v>23</v>
+      </c>
+      <c r="C198">
+        <v>0</v>
+      </c>
+      <c r="D198">
+        <v>1</v>
+      </c>
+      <c r="E198">
+        <v>4</v>
+      </c>
+      <c r="F198">
+        <v>0</v>
+      </c>
+      <c r="G198">
+        <v>1</v>
+      </c>
+      <c r="H198">
+        <v>0</v>
+      </c>
+      <c r="I198">
+        <v>1</v>
+      </c>
+      <c r="J198">
+        <v>0</v>
+      </c>
+      <c r="K198">
+        <v>0</v>
+      </c>
+      <c r="L198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A199" t="s">
+        <v>27</v>
+      </c>
+      <c r="C199">
+        <v>4</v>
+      </c>
+      <c r="D199">
+        <v>1</v>
+      </c>
+      <c r="E199">
+        <v>3</v>
+      </c>
+      <c r="F199">
+        <v>4</v>
+      </c>
+      <c r="G199">
+        <v>1</v>
+      </c>
+      <c r="H199">
+        <v>0</v>
+      </c>
+      <c r="I199">
+        <v>0</v>
+      </c>
+      <c r="J199">
+        <v>0</v>
+      </c>
+      <c r="K199">
+        <v>0</v>
+      </c>
+      <c r="L199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A200" t="s">
+        <v>28</v>
+      </c>
+      <c r="C200">
+        <v>4</v>
+      </c>
+      <c r="D200">
+        <v>1</v>
+      </c>
+      <c r="E200">
+        <v>3</v>
+      </c>
+      <c r="F200">
+        <v>4</v>
+      </c>
+      <c r="G200">
+        <v>1</v>
+      </c>
+      <c r="H200">
+        <v>0</v>
+      </c>
+      <c r="I200">
+        <v>0</v>
+      </c>
+      <c r="J200">
+        <v>0</v>
+      </c>
+      <c r="K200">
+        <v>0</v>
+      </c>
+      <c r="L200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A201" t="s">
+        <v>2</v>
+      </c>
+      <c r="C201">
+        <v>4</v>
+      </c>
+      <c r="D201">
+        <v>1</v>
+      </c>
+      <c r="E201">
+        <v>3</v>
+      </c>
+      <c r="F201">
+        <v>4</v>
+      </c>
+      <c r="G201">
+        <v>1</v>
+      </c>
+      <c r="H201">
+        <v>0</v>
+      </c>
+      <c r="I201">
+        <v>0</v>
+      </c>
+      <c r="J201">
+        <v>0</v>
+      </c>
+      <c r="K201">
+        <v>0</v>
+      </c>
+      <c r="L201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A202" t="s">
+        <v>20</v>
+      </c>
+      <c r="C202">
+        <v>4</v>
+      </c>
+      <c r="D202">
+        <v>1</v>
+      </c>
+      <c r="E202">
+        <v>3</v>
+      </c>
+      <c r="F202">
+        <v>4</v>
+      </c>
+      <c r="G202">
+        <v>1</v>
+      </c>
+      <c r="H202">
+        <v>0</v>
+      </c>
+      <c r="I202">
+        <v>0</v>
+      </c>
+      <c r="J202">
+        <v>0</v>
+      </c>
+      <c r="K202">
+        <v>0</v>
+      </c>
+      <c r="L202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A203" t="s">
+        <v>6</v>
+      </c>
+      <c r="C203">
+        <v>4</v>
+      </c>
+      <c r="D203">
+        <v>1</v>
+      </c>
+      <c r="E203">
+        <v>3</v>
+      </c>
+      <c r="F203">
+        <v>4</v>
+      </c>
+      <c r="G203">
+        <v>1</v>
+      </c>
+      <c r="H203">
+        <v>0</v>
+      </c>
+      <c r="I203">
+        <v>0</v>
+      </c>
+      <c r="J203">
+        <v>0</v>
+      </c>
+      <c r="K203">
+        <v>0</v>
+      </c>
+      <c r="L203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A204" t="s">
+        <v>45</v>
+      </c>
+      <c r="C204">
+        <v>7</v>
+      </c>
+      <c r="D204">
+        <v>2</v>
+      </c>
+      <c r="E204">
+        <v>8</v>
+      </c>
+      <c r="F204">
+        <v>0</v>
+      </c>
+      <c r="G204">
+        <v>1</v>
+      </c>
+      <c r="H204">
+        <v>0</v>
+      </c>
+      <c r="I204">
+        <v>1</v>
+      </c>
+      <c r="J204">
+        <v>0</v>
+      </c>
+      <c r="K204">
+        <v>16</v>
+      </c>
+      <c r="L204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A205" t="s">
+        <v>97</v>
+      </c>
+      <c r="C205">
+        <v>8</v>
+      </c>
+      <c r="D205">
+        <v>2</v>
+      </c>
+      <c r="E205">
+        <v>7</v>
+      </c>
+      <c r="F205">
+        <v>0</v>
+      </c>
+      <c r="G205">
+        <v>1</v>
+      </c>
+      <c r="H205">
+        <v>1</v>
+      </c>
+      <c r="I205">
+        <v>0</v>
+      </c>
+      <c r="J205">
+        <v>0</v>
+      </c>
+      <c r="K205">
+        <v>16</v>
+      </c>
+      <c r="L205">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:L456" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/pelada_sabado_2026_01.xlsx
+++ b/pelada_sabado_2026_01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ritzferramentasltda-my.sharepoint.com/personal/fernando_almeida_ritzbrasil_com/Documents/Desktop/Nova pasta (2)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="816" documentId="13_ncr:1_{A8E719AF-977A-4013-BC3F-0564FE4BBC34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4D8C6AEA-825E-4DF8-BDE4-E866EFDCA37E}"/>
+  <xr:revisionPtr revIDLastSave="817" documentId="13_ncr:1_{A8E719AF-977A-4013-BC3F-0564FE4BBC34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{552976D4-2A31-4C53-96A3-A94B93BAEA3C}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -698,8 +698,8 @@
   <dimension ref="A1:O205"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A189" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A206" sqref="A206"/>
+      <pane ySplit="1" topLeftCell="A184" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A186" sqref="A186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7172,7 +7172,7 @@
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C185">
         <v>5</v>
